--- a/Assets/Resources/Excel/BattleShipDataExcel.xlsx
+++ b/Assets/Resources/Excel/BattleShipDataExcel.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="28485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="28485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>Rank</t>
   </si>
@@ -434,160 +433,13 @@
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>ItemName</t>
-  </si>
-  <si>
-    <t>MaxItemLevel</t>
-  </si>
-  <si>
-    <t>StartingPriceTier</t>
-  </si>
-  <si>
-    <t>CurrencyType</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>ValuePerItemLevel</t>
-  </si>
-  <si>
-    <t>대용량 탄창</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>공격 장탄 추가</t>
-  </si>
-  <si>
-    <t>속사포격</t>
-  </si>
-  <si>
-    <t>공격 쿨타임 감소</t>
-  </si>
-  <si>
-    <t>재빠른 장전</t>
-  </si>
-  <si>
-    <t>공격 장탄 장전 쿨타임 감소</t>
-  </si>
-  <si>
-    <t>매의 눈</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>명중률 증가</t>
-  </si>
-  <si>
-    <t>갑판 강화</t>
-  </si>
-  <si>
-    <t>방어력 증가</t>
-  </si>
-  <si>
-    <t>정체불명의 보석함</t>
-  </si>
-  <si>
-    <t>일정시간 마다 자동으로 다이아 획득 가능</t>
-  </si>
-  <si>
-    <t>보석함 강화</t>
-  </si>
-  <si>
-    <t>자동다이아 획득시 다이아 갯수를 증가시킨다</t>
-  </si>
-  <si>
-    <t>상술 강화</t>
-  </si>
-  <si>
-    <t>함선 구매시 할일을 받는다</t>
-  </si>
-  <si>
-    <t>손재주 강화</t>
-  </si>
-  <si>
-    <t>강화 시 2단계 등급 확률을 상승 시킨다</t>
-  </si>
-  <si>
-    <t>기술력 강화</t>
-  </si>
-  <si>
-    <t>함선 강화시 할인을 받는다</t>
-  </si>
-  <si>
-    <t>전술서</t>
-  </si>
-  <si>
-    <t>추가 공격력 증가</t>
-  </si>
-  <si>
-    <t>병법서</t>
-  </si>
-  <si>
-    <t>공격력 증가</t>
-  </si>
-  <si>
-    <t>약점 포착</t>
-  </si>
-  <si>
-    <t>치명타 확률 증가</t>
-  </si>
-  <si>
-    <t>정밀 타격</t>
-  </si>
-  <si>
-    <t>치명타 데미지 증가</t>
-  </si>
-  <si>
-    <t>황금 상자</t>
-  </si>
-  <si>
-    <t>획득 골드 증가</t>
-  </si>
-  <si>
-    <t>뛰어난 병법서</t>
-  </si>
-  <si>
-    <t>행운의 타격</t>
-  </si>
-  <si>
-    <t>추가 치명타 확률 증가</t>
-  </si>
-  <si>
-    <t>치밀 타격</t>
-  </si>
-  <si>
-    <t>추가 치명타 데미지 증가</t>
-  </si>
-  <si>
-    <t>큰 황금 상자</t>
-  </si>
-  <si>
-    <t>추가 획득 골드 증가</t>
-  </si>
-  <si>
-    <t>회피술</t>
-  </si>
-  <si>
-    <t>상대방의 공격을 회피할 확율이 생긴다</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,14 +461,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,12 +478,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,15 +529,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q41" sqref="A1:Q41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2790,7 +2621,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2837,7 +2668,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2884,7 +2715,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2935,1143 +2766,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="3">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="3">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-0.3</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="3">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="3">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="3">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="3">
-        <v>310</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-10</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="3">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="3">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
-        <v>500</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3">
-        <v>500</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>50</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="6">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3">
-        <v>50</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="6">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="6">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="6">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="6">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="6">
-        <v>60</v>
-      </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="6">
-        <v>60</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>8</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="6">
-        <v>80</v>
-      </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="6">
-        <v>40</v>
-      </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Assets/Resources/Excel/BattleShipDataExcel.xlsx
+++ b/Assets/Resources/Excel/BattleShipDataExcel.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,17 +598,18 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="16" max="19" width="15.125" customWidth="1"/>
-    <col min="20" max="20" width="15.375" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="17.25" customWidth="1"/>
-    <col min="23" max="23" width="41.375" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="17" max="20" width="15.125" customWidth="1"/>
+    <col min="21" max="21" width="15.375" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="17.25" customWidth="1"/>
+    <col min="24" max="24" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>

--- a/Assets/Resources/Excel/BattleShipDataExcel.xlsx
+++ b/Assets/Resources/Excel/BattleShipDataExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Rank</t>
   </si>
@@ -206,6 +206,14 @@
   </si>
   <si>
     <t>ResourceName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,14 +610,16 @@
     <col min="13" max="13" width="14.625" customWidth="1"/>
     <col min="14" max="14" width="13.125" customWidth="1"/>
     <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="17" max="20" width="15.125" customWidth="1"/>
-    <col min="21" max="21" width="15.375" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="17.25" customWidth="1"/>
-    <col min="24" max="24" width="41.375" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
+    <col min="18" max="18" width="13.875" customWidth="1"/>
+    <col min="19" max="22" width="15.125" customWidth="1"/>
+    <col min="23" max="23" width="15.375" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="17.25" customWidth="1"/>
+    <col min="26" max="26" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -659,26 +669,32 @@
         <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -728,26 +744,32 @@
         <v>30</v>
       </c>
       <c r="Q2" s="3">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3">
+        <v>5</v>
+      </c>
+      <c r="S2" s="3">
         <v>2</v>
       </c>
-      <c r="R2" s="3">
-        <v>5</v>
-      </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
+        <v>5</v>
+      </c>
+      <c r="U2" s="3">
         <v>100</v>
       </c>
-      <c r="T2" s="3">
+      <c r="V2" s="3">
         <v>100</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -797,26 +819,32 @@
         <v>32</v>
       </c>
       <c r="Q3" s="3">
+        <v>5</v>
+      </c>
+      <c r="R3" s="3">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3">
         <v>2</v>
       </c>
-      <c r="R3" s="3">
-        <v>5</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
+        <v>5</v>
+      </c>
+      <c r="U3" s="3">
         <v>100</v>
       </c>
-      <c r="T3" s="3">
+      <c r="V3" s="3">
         <v>200</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -866,26 +894,32 @@
         <v>34</v>
       </c>
       <c r="Q4" s="3">
+        <v>5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3">
         <v>2</v>
       </c>
-      <c r="R4" s="3">
-        <v>5</v>
-      </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
+        <v>5</v>
+      </c>
+      <c r="U4" s="3">
         <v>100</v>
       </c>
-      <c r="T4" s="3">
+      <c r="V4" s="3">
         <v>400</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -935,26 +969,32 @@
         <v>36</v>
       </c>
       <c r="Q5" s="3">
+        <v>5</v>
+      </c>
+      <c r="R5" s="3">
+        <v>5</v>
+      </c>
+      <c r="S5" s="3">
         <v>2</v>
       </c>
-      <c r="R5" s="3">
-        <v>5</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
+        <v>5</v>
+      </c>
+      <c r="U5" s="3">
         <v>100</v>
       </c>
-      <c r="T5" s="3">
+      <c r="V5" s="3">
         <v>800</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1004,26 +1044,32 @@
         <v>38</v>
       </c>
       <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3">
         <v>2</v>
       </c>
-      <c r="R6" s="3">
-        <v>5</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
+        <v>5</v>
+      </c>
+      <c r="U6" s="3">
         <v>100</v>
       </c>
-      <c r="T6" s="5">
+      <c r="V6" s="5">
         <v>1000</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1073,26 +1119,32 @@
         <v>40</v>
       </c>
       <c r="Q7" s="3">
+        <v>5</v>
+      </c>
+      <c r="R7" s="3">
+        <v>5</v>
+      </c>
+      <c r="S7" s="3">
         <v>2</v>
       </c>
-      <c r="R7" s="3">
-        <v>5</v>
-      </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
+        <v>5</v>
+      </c>
+      <c r="U7" s="3">
         <v>100</v>
       </c>
-      <c r="T7" s="5">
+      <c r="V7" s="5">
         <v>1500</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1142,26 +1194,32 @@
         <v>42</v>
       </c>
       <c r="Q8" s="3">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3">
+        <v>5</v>
+      </c>
+      <c r="S8" s="3">
         <v>2</v>
       </c>
-      <c r="R8" s="3">
-        <v>5</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
+        <v>5</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="5">
+      <c r="V8" s="5">
         <v>2000</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1211,26 +1269,32 @@
         <v>44</v>
       </c>
       <c r="Q9" s="3">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>2</v>
       </c>
-      <c r="R9" s="3">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="5">
+      <c r="V9" s="5">
         <v>3000</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1280,26 +1344,32 @@
         <v>46</v>
       </c>
       <c r="Q10" s="3">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2</v>
       </c>
-      <c r="R10" s="3">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="5">
+      <c r="V10" s="5">
         <v>4500</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1349,26 +1419,32 @@
         <v>48</v>
       </c>
       <c r="Q11" s="3">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>5</v>
+      </c>
+      <c r="S11" s="3">
         <v>2</v>
       </c>
-      <c r="R11" s="3">
-        <v>5</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
+        <v>5</v>
+      </c>
+      <c r="U11" s="3">
         <v>100</v>
       </c>
-      <c r="T11" s="5">
+      <c r="V11" s="5">
         <v>6500</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1388,12 +1464,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="5"/>
       <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1413,12 +1491,14 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="5"/>
       <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1438,12 +1518,14 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="5"/>
       <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1463,12 +1545,14 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="5"/>
       <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1488,12 +1572,14 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="5"/>
       <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1513,12 +1599,14 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="5"/>
       <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1538,12 +1626,14 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="5"/>
       <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1563,12 +1653,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="5"/>
       <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1588,12 +1680,14 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="5"/>
       <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1613,12 +1707,14 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="5"/>
       <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1638,12 +1734,14 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="5"/>
       <c r="W22" s="4"/>
-    </row>
-    <row r="23" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1663,12 +1761,14 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="5"/>
       <c r="W23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1688,12 +1788,14 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="5"/>
       <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1713,12 +1815,14 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="5"/>
       <c r="W25" s="4"/>
-    </row>
-    <row r="26" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -1738,12 +1842,14 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="5"/>
       <c r="W26" s="4"/>
-    </row>
-    <row r="27" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -1763,12 +1869,14 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="5"/>
       <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -1788,12 +1896,14 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="5"/>
       <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -1813,12 +1923,14 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="5"/>
       <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -1838,12 +1950,14 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="5"/>
       <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -1863,12 +1977,14 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="5"/>
       <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+    </row>
+    <row r="32" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -1888,12 +2004,14 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="5"/>
       <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -1913,12 +2031,14 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="5"/>
       <c r="W33" s="4"/>
-    </row>
-    <row r="34" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -1938,12 +2058,14 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="5"/>
       <c r="W34" s="4"/>
-    </row>
-    <row r="35" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1963,12 +2085,14 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="5"/>
       <c r="W35" s="4"/>
-    </row>
-    <row r="36" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1988,12 +2112,14 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="5"/>
       <c r="W36" s="4"/>
-    </row>
-    <row r="37" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -2013,12 +2139,14 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="5"/>
       <c r="W37" s="4"/>
-    </row>
-    <row r="38" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -2038,12 +2166,14 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="5"/>
       <c r="W38" s="4"/>
-    </row>
-    <row r="39" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -2063,12 +2193,14 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="5"/>
       <c r="W39" s="4"/>
-    </row>
-    <row r="40" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -2088,12 +2220,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="5"/>
       <c r="W40" s="4"/>
-    </row>
-    <row r="41" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -2113,10 +2247,12 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="5"/>
       <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Resources/Excel/BattleShipDataExcel.xlsx
+++ b/Assets/Resources/Excel/BattleShipDataExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Rank</t>
   </si>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Contry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Accuracy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,10 +178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TorpedoDefence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ReloadTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -214,6 +206,10 @@
   </si>
   <si>
     <t>CriticalDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,18 +604,17 @@
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="12" max="12" width="17.875" customWidth="1"/>
     <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="17" max="17" width="10.375" customWidth="1"/>
-    <col min="18" max="18" width="13.875" customWidth="1"/>
-    <col min="19" max="22" width="15.125" customWidth="1"/>
-    <col min="23" max="23" width="15.375" customWidth="1"/>
-    <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="17.25" customWidth="1"/>
-    <col min="26" max="26" width="41.375" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="18" max="21" width="15.125" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -651,50 +646,47 @@
         <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -738,38 +730,35 @@
         <v>1</v>
       </c>
       <c r="O2" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P2" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="3">
         <v>5</v>
       </c>
       <c r="R2" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S2" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T2" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="U2" s="3">
         <v>100</v>
       </c>
-      <c r="V2" s="3">
-        <v>100</v>
+      <c r="V2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -813,38 +802,35 @@
         <v>2</v>
       </c>
       <c r="O3" s="3">
+        <v>32</v>
+      </c>
+      <c r="P3" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>5</v>
+      </c>
+      <c r="R3" s="3">
         <v>2</v>
       </c>
-      <c r="P3" s="3">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>5</v>
-      </c>
-      <c r="R3" s="3">
-        <v>5</v>
-      </c>
       <c r="S3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T3" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="U3" s="3">
-        <v>100</v>
-      </c>
-      <c r="V3" s="3">
         <v>200</v>
       </c>
+      <c r="V3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="W3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -885,41 +871,38 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="P4" s="3">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="3">
         <v>5</v>
       </c>
       <c r="R4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="U4" s="3">
-        <v>100</v>
-      </c>
-      <c r="V4" s="3">
         <v>400</v>
       </c>
+      <c r="V4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="W4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -960,41 +943,38 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" s="3">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="P5" s="3">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="3">
         <v>5</v>
       </c>
       <c r="R5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S5" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T5" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="U5" s="3">
-        <v>100</v>
-      </c>
-      <c r="V5" s="3">
         <v>800</v>
       </c>
+      <c r="V5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="W5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1035,41 +1015,38 @@
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="P6" s="3">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="3">
         <v>5</v>
       </c>
       <c r="R6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S6" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T6" s="3">
-        <v>5</v>
-      </c>
-      <c r="U6" s="3">
         <v>100</v>
       </c>
-      <c r="V6" s="5">
+      <c r="U6" s="5">
         <v>1000</v>
       </c>
+      <c r="V6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="W6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1110,41 +1087,38 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="3">
+        <v>40</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>5</v>
+      </c>
+      <c r="R7" s="3">
         <v>2</v>
       </c>
-      <c r="P7" s="3">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>5</v>
-      </c>
-      <c r="R7" s="3">
-        <v>5</v>
-      </c>
       <c r="S7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T7" s="3">
-        <v>5</v>
-      </c>
-      <c r="U7" s="3">
         <v>100</v>
       </c>
-      <c r="V7" s="5">
+      <c r="U7" s="5">
         <v>1500</v>
       </c>
+      <c r="V7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="W7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1185,41 +1159,38 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="3">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="P8" s="3">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="3">
         <v>5</v>
       </c>
       <c r="R8" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S8" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T8" s="3">
-        <v>5</v>
-      </c>
-      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="5">
+      <c r="U8" s="5">
         <v>2000</v>
       </c>
+      <c r="V8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="W8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1260,41 +1231,38 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" s="3">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="P9" s="3">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="3">
         <v>5</v>
       </c>
       <c r="R9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T9" s="3">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="5">
+      <c r="U9" s="5">
         <v>3000</v>
       </c>
+      <c r="V9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="W9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1335,41 +1303,38 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="P10" s="3">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="3">
         <v>5</v>
       </c>
       <c r="R10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T10" s="3">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="5">
+      <c r="U10" s="5">
         <v>4500</v>
       </c>
+      <c r="V10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="W10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1410,41 +1375,38 @@
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="3">
+        <v>48</v>
+      </c>
+      <c r="P11" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3">
         <v>2</v>
       </c>
-      <c r="P11" s="3">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>5</v>
-      </c>
-      <c r="R11" s="3">
-        <v>5</v>
-      </c>
       <c r="S11" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T11" s="3">
-        <v>5</v>
-      </c>
-      <c r="U11" s="3">
         <v>100</v>
       </c>
-      <c r="V11" s="5">
+      <c r="U11" s="5">
         <v>6500</v>
       </c>
+      <c r="V11" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="W11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1465,13 +1427,12 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1492,13 +1453,12 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1519,13 +1479,12 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1546,13 +1505,12 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1573,13 +1531,12 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1600,13 +1557,12 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1627,13 +1583,12 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1654,13 +1609,12 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1681,13 +1635,12 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1708,13 +1661,12 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1735,13 +1687,12 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1755,20 +1706,19 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1782,20 +1732,19 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1809,20 +1758,19 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -1836,20 +1784,19 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -1863,20 +1810,19 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -1890,20 +1836,19 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -1917,20 +1862,19 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -1944,20 +1888,19 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -1971,20 +1914,19 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -1998,20 +1940,19 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -2025,20 +1966,19 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -2052,20 +1992,19 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2079,20 +2018,19 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="36" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -2106,20 +2044,19 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -2133,20 +2070,19 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -2160,20 +2096,19 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-    </row>
-    <row r="39" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -2187,20 +2122,19 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -2214,20 +2148,19 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-    </row>
-    <row r="41" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -2241,18 +2174,17 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
